--- a/biology/Histoire de la zoologie et de la botanique/Karl_Wilhelm_von_Nägeli/Karl_Wilhelm_von_Nägeli.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Wilhelm_von_Nägeli/Karl_Wilhelm_von_Nägeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl_Wilhelm_von_N%C3%A4geli</t>
+          <t>Karl_Wilhelm_von_Nägeli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Wilhelm von Nägeli, né le 27 mars 1817 à Kilchberg et mort le 11 mai 1891 à Munich, est un botaniste suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karl_Wilhelm_von_N%C3%A4geli</t>
+          <t>Karl_Wilhelm_von_Nägeli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la botanique auprès d'Augustin Pyrame de Candolle (1778-1841) à Genève et soutient une thèse de botanique à Zurich en 1840. Matthias Jakob Schleiden (1804-1881), alors professeur de botanique à Iéna, l'incite à s'intéresser à l'étude microscopique des végétaux, Nägeli s'oriente alors vers cette recherche. Après sa soutenance, il devient Privatdozent (professeur extraordinaire), à l'université de Zurich ; en 1852, il obtient la chaire de botanique de l'université de Fribourg-en-Brisgau et en 1857, celle de Munich où il demeurera jusqu'à sa mort.
-Sa fill est la peintre Betty Nägeli[3].
-Contributions
-Il publie ses principaux travaux dans Zeitschrift fur wissenschaftliche Botanik[4] (1844-1846) ; Die neuern Algensysteme (1847) ; Gattungen einzelliger Algen (1849) ; Pflanzenphysiologische Untersuchungen (1855-1858) avec Carl Eduard Cramer (1831-1901) ; Beitrage zur wissenschaftlichen Botanik (1858-1868). Certains de ses articles publiés par l'Académie des sciences royale de Bavière, ont été réunis en trois volumes sous le titre de Botanische Mitteilungen (1861-1881). Il finit par faire paraître Mechanisch-physiologische Theorie der Abstammungslehre (en 1884). 
+Sa fill est la peintre Betty Nägeli.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karl_Wilhelm_von_Nägeli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karl_Wilhelm_von_N%C3%A4geli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie ses principaux travaux dans Zeitschrift fur wissenschaftliche Botanik (1844-1846) ; Die neuern Algensysteme (1847) ; Gattungen einzelliger Algen (1849) ; Pflanzenphysiologische Untersuchungen (1855-1858) avec Carl Eduard Cramer (1831-1901) ; Beitrage zur wissenschaftlichen Botanik (1858-1868). Certains de ses articles publiés par l'Académie des sciences royale de Bavière, ont été réunis en trois volumes sous le titre de Botanische Mitteilungen (1861-1881). Il finit par faire paraître Mechanisch-physiologische Theorie der Abstammungslehre (en 1884). 
 Nägeli était membre étranger de l'Académie des sciences de Saint-Pétersbourg (1865), correspondant de l'Académie des sciences de Berlin (1874), membre étranger de la Royal Society de Londres (1881) et Membre étranger de l'Académie de Stockholm (1883).
 </t>
         </is>
